--- a/Excel/Práctica/14. BuscarV & BuscarH/FuncionBuscarV.xlsx
+++ b/Excel/Práctica/14. BuscarV & BuscarH/FuncionBuscarV.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertovelasquezdean/Desktop/Rescata_/Programación/Excel/Práctica/BuscarV &amp; BuscarH/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertovelasquezdean/Desktop/Rescata_/Programación/Excel/Práctica/14. BuscarV &amp; BuscarH/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -162,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="476">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -1652,56 +1652,6 @@
   </si>
   <si>
     <t>Del resto, guiese con los mismos parametros o argumentos que la función le irá mostrando propiamente.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Nos permite buscar datos adicionales que se relacionen con un dato de entrada ya indicado (el cual se busca de manera </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>vertical</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>); es decir, conocer información adicional que se relacione o haga parte del mismo registro o fila a la que pertenece el dato de referencia, al que tenemos acceso desde un principio (nuestro valor buscado). Hay que aclarar que, generalmente, este dato de entrada es también el dato, de un registro de nuestro interés, que va sí o sí en la primera columna de la matriz donde se buscará más información.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Una vez que hemos encontrado de manera vertical el registro que estamos buscando, a partir del dato referencia al que tenemos acceso y con el cual nos asistimos para </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>buscarv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (en mi 1er caso: ID-301-4504), entonces podríamos recuperar cualquier información adicional relacionada al mismo registro o fila de este dato de referencia o valor buscado; esto según la columna de la que desee extraer esta información adicional del dato de referencia o de entrada. </t>
-    </r>
   </si>
   <si>
     <r>
@@ -1836,6 +1786,209 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">El nombre del empleado relacionado al ID-301-4504. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Una vez que hemos encontrado de manera vertical el registro que estamos buscando, a partir del dato referencia al que tenemos acceso y con el cual nos asistimos para </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>buscarv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (en mi 1er caso: ID-301-4504), entonces podríamos recuperar cualquier información adicional relacionada al mismo registro o fila de este dato de referencia o valor buscado (es decir, del mismo registro de: ID-301-4504); esto según la columna de la que desee extraer esta información adicional del dato de referencia o de entrada (ID-301-4504).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">De interés: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">La diferencia entre coincidencia aproximada y coincidencia exacta es qué va a mostrar la fórmula cuando no encuentre el valor que estás buscando. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>La coincidencia aproximada</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sucede si escribes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VERDADERO, 1, o dejas el espacio en blanco</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, y lo que hace si no encuentra el valor que indicas, es que va a buscar el valor más cercano, y a mostrarte ese resultado (lo cual, por cierto, podría darte problemas en tus datos). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>La coincidencia exacta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sucede si escribes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FALSO ó 0,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> y significa que en caso de que no encuentre el valor que indicaste, va a mostrar como resultado #N/A, con lo cual sabrás que ese dato no está en la lista y podrás hacer algo al respecto. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Casi siempre, esta va a ser la mejor opción.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nos permite buscar datos adicionales que se relacionen con un dato de entrada ya indicado (este dato adicional se busca de manera </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">vertical </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">porque lo busca entre </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>columnas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">); es decir, conocer información adicional que se relacione o haga parte del mismo registro o fila a la que pertenece el dato de referencia (un dato de entrada ya indicado), al que tenemos acceso desde un principio (el valor a buscar). Hay que aclarar que, con BUSCARV, este dato de entrada es también el dato, de un registro de nuestro interés, que va </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sí o sí</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> en la primera columna de la matriz de dónde se buscará más información.</t>
     </r>
   </si>
 </sst>
@@ -2071,7 +2224,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
@@ -2084,8 +2237,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2094,12 +2252,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2421,10 +2573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q194"/>
+  <dimension ref="A1:Q196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2458,12 +2610,12 @@
         <v>269</v>
       </c>
       <c r="F1"/>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -2527,14 +2679,14 @@
         <f>VLOOKUP(G3,A$2:E$193,4,FALSE)</f>
         <v>1500</v>
       </c>
-      <c r="L3" s="15" t="s">
-        <v>472</v>
-      </c>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
+      <c r="L3" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
     </row>
     <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -2568,12 +2720,12 @@
         <f>VLOOKUP(G4,A$2:E$193,4,FALSE)</f>
         <v>1500</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -2607,12 +2759,12 @@
         <f>VLOOKUP(G5,A$2:E$193,4,FALSE)</f>
         <v>1100</v>
       </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -2631,12 +2783,12 @@
         <v>372</v>
       </c>
       <c r="F6"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
     </row>
     <row r="7" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -2655,15 +2807,15 @@
         <v>272</v>
       </c>
       <c r="F7"/>
-      <c r="H7" s="11"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-    </row>
-    <row r="8" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="10"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+    </row>
+    <row r="8" spans="1:17" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>434</v>
       </c>
@@ -2680,13 +2832,18 @@
         <v>372</v>
       </c>
       <c r="F8"/>
-      <c r="G8" s="10"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
+      <c r="G8" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
     </row>
     <row r="9" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -2705,13 +2862,16 @@
         <v>272</v>
       </c>
       <c r="F9"/>
-      <c r="G9" s="10"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
     </row>
     <row r="10" spans="1:17" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -2730,6 +2890,16 @@
         <v>271</v>
       </c>
       <c r="F10"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
     </row>
     <row r="11" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -2748,16 +2918,12 @@
         <v>272</v>
       </c>
       <c r="F11"/>
-      <c r="L11" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-    </row>
-    <row r="12" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:17" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>284</v>
       </c>
@@ -2774,13 +2940,18 @@
         <v>372</v>
       </c>
       <c r="F12"/>
-      <c r="G12" s="11"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="L12" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
     </row>
     <row r="13" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -2799,12 +2970,16 @@
         <v>272</v>
       </c>
       <c r="F13"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
     </row>
     <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -2823,12 +2998,16 @@
         <v>270</v>
       </c>
       <c r="F14"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
     </row>
     <row r="15" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -2847,12 +3026,16 @@
         <v>272</v>
       </c>
       <c r="F15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
     </row>
     <row r="16" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -2871,12 +3054,16 @@
         <v>372</v>
       </c>
       <c r="F16"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
     </row>
     <row r="17" spans="1:17" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -2895,6 +3082,16 @@
         <v>271</v>
       </c>
       <c r="F17"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
     </row>
     <row r="18" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -2913,14 +3110,16 @@
         <v>271</v>
       </c>
       <c r="F18"/>
-      <c r="L18" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
     </row>
     <row r="19" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -2939,12 +3138,10 @@
         <v>372</v>
       </c>
       <c r="F19"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
     </row>
     <row r="20" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -2963,12 +3160,18 @@
         <v>272</v>
       </c>
       <c r="F20"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="L20" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
     </row>
     <row r="21" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -2987,12 +3190,16 @@
         <v>372</v>
       </c>
       <c r="F21"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
     </row>
     <row r="22" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -3011,12 +3218,16 @@
         <v>270</v>
       </c>
       <c r="F22"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
     </row>
     <row r="23" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -3035,12 +3246,16 @@
         <v>372</v>
       </c>
       <c r="F23"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
     </row>
     <row r="24" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -3059,12 +3274,16 @@
         <v>272</v>
       </c>
       <c r="F24"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
     </row>
     <row r="25" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -3083,6 +3302,12 @@
         <v>270</v>
       </c>
       <c r="F25"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
     </row>
     <row r="26" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
@@ -3101,9 +3326,7 @@
         <v>270</v>
       </c>
       <c r="F26"/>
-      <c r="L26" s="12" t="s">
-        <v>470</v>
-      </c>
+      <c r="L26" s="12"/>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
@@ -3127,12 +3350,6 @@
         <v>272</v>
       </c>
       <c r="F27"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
     </row>
     <row r="28" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
@@ -3151,6 +3368,14 @@
         <v>272</v>
       </c>
       <c r="F28"/>
+      <c r="L28" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
     </row>
     <row r="29" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -3169,9 +3394,7 @@
         <v>372</v>
       </c>
       <c r="F29"/>
-      <c r="L29" s="13" t="s">
-        <v>471</v>
-      </c>
+      <c r="L29" s="13"/>
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
       <c r="O29" s="13"/>
@@ -3195,12 +3418,6 @@
         <v>272</v>
       </c>
       <c r="F30"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
     </row>
     <row r="31" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
@@ -3219,6 +3436,14 @@
         <v>271</v>
       </c>
       <c r="F31"/>
+      <c r="L31" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
     </row>
     <row r="32" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
@@ -3237,6 +3462,12 @@
         <v>270</v>
       </c>
       <c r="F32"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
     </row>
     <row r="33" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
@@ -3255,12 +3486,6 @@
         <v>372</v>
       </c>
       <c r="F33"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
     </row>
     <row r="34" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
@@ -3279,12 +3504,6 @@
         <v>270</v>
       </c>
       <c r="F34"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
     </row>
     <row r="35" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
@@ -3303,12 +3522,12 @@
         <v>372</v>
       </c>
       <c r="F35"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
     </row>
     <row r="36" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
@@ -3327,12 +3546,12 @@
         <v>372</v>
       </c>
       <c r="F36"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
     </row>
     <row r="37" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
@@ -3351,12 +3570,12 @@
         <v>271</v>
       </c>
       <c r="F37"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
     </row>
     <row r="38" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
@@ -3375,12 +3594,12 @@
         <v>372</v>
       </c>
       <c r="F38"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
     </row>
     <row r="39" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
@@ -3399,12 +3618,12 @@
         <v>271</v>
       </c>
       <c r="F39"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
     </row>
     <row r="40" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
@@ -3423,12 +3642,12 @@
         <v>272</v>
       </c>
       <c r="F40"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
     </row>
     <row r="41" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -3447,12 +3666,12 @@
         <v>270</v>
       </c>
       <c r="F41"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
     </row>
     <row r="42" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
@@ -3471,12 +3690,12 @@
         <v>372</v>
       </c>
       <c r="F42"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
     </row>
     <row r="43" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
@@ -3495,6 +3714,12 @@
         <v>271</v>
       </c>
       <c r="F43"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
     </row>
     <row r="44" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
@@ -3513,6 +3738,12 @@
         <v>271</v>
       </c>
       <c r="F44"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
     </row>
     <row r="45" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
@@ -6209,14 +6440,31 @@
       <c r="P194" s="3"/>
       <c r="Q194" s="3"/>
     </row>
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L195" s="3"/>
+      <c r="M195" s="3"/>
+      <c r="N195" s="3"/>
+      <c r="O195" s="3"/>
+      <c r="P195" s="3"/>
+      <c r="Q195" s="3"/>
+    </row>
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L196" s="3"/>
+      <c r="M196" s="3"/>
+      <c r="N196" s="3"/>
+      <c r="O196" s="3"/>
+      <c r="P196" s="3"/>
+      <c r="Q196" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="L3:Q9"/>
-    <mergeCell ref="L26:Q27"/>
-    <mergeCell ref="L29:Q30"/>
+  <mergeCells count="7">
+    <mergeCell ref="L28:Q29"/>
+    <mergeCell ref="L31:Q32"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="L11:Q16"/>
-    <mergeCell ref="L18:Q24"/>
+    <mergeCell ref="L20:Q26"/>
+    <mergeCell ref="L3:Q10"/>
+    <mergeCell ref="L12:Q18"/>
+    <mergeCell ref="G8:J21"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Práctica/14. BuscarV & BuscarH/FuncionBuscarV.xlsx
+++ b/Excel/Práctica/14. BuscarV & BuscarH/FuncionBuscarV.xlsx
@@ -2241,9 +2241,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2252,6 +2249,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2576,7 +2576,7 @@
   <dimension ref="A1:Q196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2610,12 +2610,12 @@
         <v>269</v>
       </c>
       <c r="F1"/>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -2668,7 +2668,7 @@
         <v>407</v>
       </c>
       <c r="H3" t="str">
-        <f>VLOOKUP(G3,A2:E193,2,FALSE)</f>
+        <f>VLOOKUP(G3,$A$2:$E$193,2,FALSE)</f>
         <v>JOSE</v>
       </c>
       <c r="I3" t="str">
@@ -2679,14 +2679,14 @@
         <f>VLOOKUP(G3,A$2:E$193,4,FALSE)</f>
         <v>1500</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="15" t="s">
         <v>475</v>
       </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -2709,7 +2709,7 @@
         <v>309</v>
       </c>
       <c r="H4" t="str">
-        <f>VLOOKUP(G4,A2:E193,2,FALSE)</f>
+        <f t="shared" ref="H4:H5" si="0">VLOOKUP(G4,$A$2:$E$193,2,FALSE)</f>
         <v>ANTONIO</v>
       </c>
       <c r="I4" t="str">
@@ -2720,12 +2720,12 @@
         <f>VLOOKUP(G4,A$2:E$193,4,FALSE)</f>
         <v>1500</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
     </row>
     <row r="5" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -2748,7 +2748,7 @@
         <v>461</v>
       </c>
       <c r="H5" t="str">
-        <f>VLOOKUP(G5,A3:E194,2,FALSE)</f>
+        <f>VLOOKUP(G5,$A$2:$E$193,2,FALSE)</f>
         <v>DAVID</v>
       </c>
       <c r="I5" t="str">
@@ -2759,12 +2759,12 @@
         <f>VLOOKUP(G5,A$2:E$193,4,FALSE)</f>
         <v>1100</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
     </row>
     <row r="6" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -2783,12 +2783,12 @@
         <v>372</v>
       </c>
       <c r="F6"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
     </row>
     <row r="7" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -2808,12 +2808,12 @@
       </c>
       <c r="F7"/>
       <c r="H7" s="10"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
     </row>
     <row r="8" spans="1:17" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -2832,18 +2832,18 @@
         <v>372</v>
       </c>
       <c r="F8"/>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="15" t="s">
         <v>474</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
     </row>
     <row r="9" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -2862,16 +2862,16 @@
         <v>272</v>
       </c>
       <c r="F9"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
     </row>
     <row r="10" spans="1:17" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -2890,16 +2890,16 @@
         <v>271</v>
       </c>
       <c r="F10"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
     </row>
     <row r="11" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -2918,10 +2918,10 @@
         <v>272</v>
       </c>
       <c r="F11"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" spans="1:17" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -2940,18 +2940,18 @@
         <v>372</v>
       </c>
       <c r="F12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="L12" s="12" t="s">
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="L12" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
     </row>
     <row r="13" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -2970,16 +2970,16 @@
         <v>272</v>
       </c>
       <c r="F13"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
     </row>
     <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -2998,16 +2998,16 @@
         <v>270</v>
       </c>
       <c r="F14"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
     </row>
     <row r="15" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -3026,16 +3026,16 @@
         <v>272</v>
       </c>
       <c r="F15"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
     </row>
     <row r="16" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -3054,16 +3054,16 @@
         <v>372</v>
       </c>
       <c r="F16"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
     </row>
     <row r="17" spans="1:17" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -3082,16 +3082,16 @@
         <v>271</v>
       </c>
       <c r="F17"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
     </row>
     <row r="18" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -3110,16 +3110,16 @@
         <v>271</v>
       </c>
       <c r="F18"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
     </row>
     <row r="19" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -3138,10 +3138,10 @@
         <v>372</v>
       </c>
       <c r="F19"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
     </row>
     <row r="20" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -3160,18 +3160,18 @@
         <v>272</v>
       </c>
       <c r="F20"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="L20" s="12" t="s">
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="L20" s="15" t="s">
         <v>472</v>
       </c>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
     </row>
     <row r="21" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -3190,16 +3190,16 @@
         <v>372</v>
       </c>
       <c r="F21"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
     </row>
     <row r="22" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -3222,12 +3222,12 @@
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
     </row>
     <row r="23" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -3250,12 +3250,12 @@
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
     </row>
     <row r="24" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -3278,12 +3278,12 @@
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
     </row>
     <row r="25" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -3302,12 +3302,12 @@
         <v>270</v>
       </c>
       <c r="F25"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
     </row>
     <row r="26" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
@@ -3326,12 +3326,12 @@
         <v>270</v>
       </c>
       <c r="F26"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
     </row>
     <row r="27" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
@@ -3368,14 +3368,14 @@
         <v>272</v>
       </c>
       <c r="F28"/>
-      <c r="L28" s="13" t="s">
+      <c r="L28" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
     </row>
     <row r="29" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -3394,12 +3394,12 @@
         <v>372</v>
       </c>
       <c r="F29"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
     </row>
     <row r="30" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
@@ -3436,14 +3436,14 @@
         <v>271</v>
       </c>
       <c r="F31"/>
-      <c r="L31" s="14" t="s">
+      <c r="L31" s="13" t="s">
         <v>471</v>
       </c>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
     </row>
     <row r="32" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
@@ -3462,12 +3462,12 @@
         <v>270</v>
       </c>
       <c r="F32"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
     </row>
     <row r="33" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
